--- a/Stunde5/aufwandsklassen.xlsx
+++ b/Stunde5/aufwandsklassen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\2022_23\SWP_Rub\Stunde5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6C81E90-9FAC-4AFB-8001-BB871BE984C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB762596-10B7-44C9-A608-FA633335B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{209DC5C3-026B-4038-A41C-28F2C5B64654}"/>
   </bookViews>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -129,6 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -445,13 +449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C084ED9C-4DB3-4F41-A33B-66E13819EA81}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="277" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="277" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +473,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -480,7 +487,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -494,7 +501,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -508,7 +515,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -522,7 +529,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -536,7 +543,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -550,7 +557,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -564,7 +571,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -579,5 +586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stunde5/aufwandsklassen.xlsx
+++ b/Stunde5/aufwandsklassen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Schule\2022_23\SWP_Rub\Stunde5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB762596-10B7-44C9-A608-FA633335B6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E57AB-3BD7-4531-8711-A7B5CED5E5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{209DC5C3-026B-4038-A41C-28F2C5B64654}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="277" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
